--- a/Luban/Configs/Datas/item/item.xlsx
+++ b/Luban/Configs/Datas/item/item.xlsx
@@ -14,56 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esc</t>
-    </r>
+    <t>desc</t>
   </si>
   <si>
     <t>price</t>
@@ -90,9 +52,6 @@
     <t>exchange3</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -102,6 +61,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -135,26 +97,7 @@
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>这是id</t>
   </si>
   <si>
     <t>名字</t>
@@ -181,32 +124,13 @@
     <t>道具兑换配置</t>
   </si>
   <si>
-    <t>发型</t>
+    <t>/test/name</t>
   </si>
   <si>
     <t>初始发型</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ull</t>
-    </r>
+    <t>null</t>
   </si>
   <si>
     <t>A</t>
@@ -218,9 +142,6 @@
     <t>10001,2;10002,3</t>
   </si>
   <si>
-    <t>外套</t>
-  </si>
-  <si>
     <t>初始外套</t>
   </si>
   <si>
@@ -230,9 +151,6 @@
     <t>10001,2;10002,4</t>
   </si>
   <si>
-    <t>上衣</t>
-  </si>
-  <si>
     <t>初始上衣</t>
   </si>
   <si>
@@ -242,94 +160,19 @@
     <t>10001,2;10002,5</t>
   </si>
   <si>
-    <t>裙子</t>
-  </si>
-  <si>
-    <t>初始下装</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>中秋节发饰</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>10004,3</t>
-  </si>
-  <si>
-    <t>10001,2;10002,6</t>
-  </si>
-  <si>
-    <t>袜子</t>
-  </si>
-  <si>
-    <t>初始袜子</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10005,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,7</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>初始鞋子</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>10006,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,8</t>
-  </si>
-  <si>
-    <t>发饰</t>
-  </si>
-  <si>
-    <t>初始发饰</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>10007,5</t>
-  </si>
-  <si>
-    <t>10001,2;10002,9</t>
-  </si>
-  <si>
-    <t>中秋节发饰</t>
-  </si>
-  <si>
     <t>10008,5</t>
   </si>
   <si>
     <t>10001,2;10002,10</t>
   </si>
   <si>
-    <t>中秋节鞋子</t>
-  </si>
-  <si>
-    <t>10009,6</t>
-  </si>
-  <si>
-    <t>10001,2;10002,11</t>
-  </si>
-  <si>
-    <t>礼包</t>
-  </si>
-  <si>
     <t>中秋节礼包</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>10000,6</t>
@@ -348,7 +191,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +212,24 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -822,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,7 +695,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,158 +704,152 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,17 +1171,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.225" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="3" customWidth="1"/>
@@ -1373,11 +1228,11 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1414,13 +1269,13 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="10"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1445,19 +1300,19 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:35">
       <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -1471,17 +1326,17 @@
       <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1522,11 +1377,11 @@
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1577,15 +1432,15 @@
       <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1625,25 +1480,25 @@
       <c r="F6" s="6">
         <v>10001</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8" t="b">
+      <c r="H6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="7">
         <v>10001</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1653,10 +1508,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="6">
         <v>100</v>
@@ -1664,25 +1519,25 @@
       <c r="F7" s="6">
         <v>10002</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="L7" s="7">
         <v>10001</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1692,309 +1547,114 @@
         <v>10002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6">
         <v>100</v>
       </c>
       <c r="F8" s="6">
-        <v>10003</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>10007</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="13">
+        <v>46</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="7">
         <v>10001</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
-        <v>10003</v>
+        <v>10007</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10009</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44479.9999884259</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="6">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10004</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="L9" s="7">
         <v>10001</v>
       </c>
-      <c r="M9" s="13">
-        <v>5</v>
+      <c r="M9" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
-        <v>10004</v>
+        <v>10009</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6">
         <v>100</v>
       </c>
       <c r="F10" s="6">
-        <v>10005</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7">
         <v>10001</v>
       </c>
-      <c r="M10" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6">
-        <v>10006</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="13">
-        <v>10001</v>
-      </c>
-      <c r="M11" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6">
-        <v>10006</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100</v>
-      </c>
-      <c r="F12" s="6">
-        <v>10007</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="13">
-        <v>10001</v>
-      </c>
-      <c r="M12" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6">
-        <v>10007</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="6">
-        <v>200</v>
-      </c>
-      <c r="F13" s="6">
-        <v>10008</v>
-      </c>
-      <c r="G13" s="9">
-        <v>44479.9999884259</v>
-      </c>
-      <c r="H13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="13">
-        <v>10001</v>
-      </c>
-      <c r="M13" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6">
-        <v>10008</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="6">
-        <v>300</v>
-      </c>
-      <c r="F14" s="6">
-        <v>10009</v>
-      </c>
-      <c r="G14" s="9">
-        <v>44480.9999884259</v>
-      </c>
-      <c r="H14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="13">
-        <v>10001</v>
-      </c>
-      <c r="M14" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6">
-        <v>10009</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="6">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="13">
-        <v>10001</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="M10" s="7">
         <v>11</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/item/item.xlsx
+++ b/Luban/Configs/Datas/item/item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -61,9 +61,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -91,7 +88,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>s</t>
+    <t>c,s</t>
   </si>
   <si>
     <t>##</t>
@@ -1174,7 +1171,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1309,31 +1306,31 @@
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="L3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="10"/>
@@ -1361,21 +1358,21 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:35">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="5"/>
@@ -1406,38 +1403,38 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:35">
       <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="10"/>
@@ -1469,10 +1466,10 @@
         <v>10000</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
@@ -1481,19 +1478,19 @@
         <v>10001</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="L6" s="7">
         <v>10001</v>
@@ -1508,10 +1505,10 @@
         <v>10001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6">
         <v>100</v>
@@ -1520,19 +1517,19 @@
         <v>10002</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="7">
         <v>10001</v>
@@ -1547,10 +1544,10 @@
         <v>10002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6">
         <v>100</v>
@@ -1559,19 +1556,19 @@
         <v>10007</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="L8" s="7">
         <v>10001</v>
@@ -1586,10 +1583,10 @@
         <v>10007</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
@@ -1604,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="L9" s="7">
         <v>10001</v>
@@ -1625,10 +1622,10 @@
         <v>10009</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6">
         <v>100</v>
@@ -1637,19 +1634,19 @@
         <v>10000</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="L10" s="7">
         <v>10001</v>
